--- a/Resultados_Capítulo_6.xlsx
+++ b/Resultados_Capítulo_6.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uma365-my.sharepoint.com/personal/jasantoyo_uma_es/Documents/Doctorado/Tesis/Anexo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="8_{2F3E0B35-622D-4E95-B953-DADB13DC5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0DBB98-8DC9-44B0-8071-0BABAA4734EA}"/>
+  <xr:revisionPtr revIDLastSave="1307" documentId="8_{2F3E0B35-622D-4E95-B953-DADB13DC5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7923D63-B3A1-4A79-989B-D851589991BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7794C00-808B-4A6F-8B30-274D38F3001F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered Search" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -39,7 +39,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1804,6 +1804,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3550,8 +3718,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Kernel">
@@ -3574,7 +3742,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3628,8 +3796,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Repository">
@@ -3652,7 +3820,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3706,8 +3874,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Combination ID">
@@ -3730,7 +3898,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3784,8 +3952,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Algorithm">
@@ -3808,7 +3976,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3862,8 +4030,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="No Neighbours">
@@ -3886,7 +4054,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3940,8 +4108,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Mode Features">
@@ -3964,7 +4132,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4059,8 +4227,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Repository 1">
@@ -4083,7 +4251,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4137,8 +4305,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Combination ID 1">
@@ -4161,7 +4329,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4215,8 +4383,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Algorithm 1">
@@ -4239,7 +4407,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4293,8 +4461,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Kernel 2">
@@ -4317,7 +4485,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4371,8 +4539,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="No Neighbours 1">
@@ -4395,7 +4563,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4449,8 +4617,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Mode Features 1">
@@ -4473,7 +4641,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14358,7 +14526,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF1317BE-1CE0-4229-99D9-105632A3AE61}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF1317BE-1CE0-4229-99D9-105632A3AE61}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:E17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -14531,7 +14699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04AEFB33-E774-4061-ADB0-66B3BD3BD813}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="378">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04AEFB33-E774-4061-ADB0-66B3BD3BD813}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="378">
   <location ref="A3:G23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -15493,7 +15661,7 @@
   <dimension ref="A1:M649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37173,12 +37341,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37314,15 +37479,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44F5569-8217-43A9-8E26-234AE5175147}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A572B8E7-9779-42B8-A167-165186699BF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37346,10 +37515,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A572B8E7-9779-42B8-A167-165186699BF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44F5569-8217-43A9-8E26-234AE5175147}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>